--- a/rapporter_2025/Kostra 19 - Bruer høydebegrensning under 4m.xlsx
+++ b/rapporter_2025/Kostra 19 - Bruer høydebegrensning under 4m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andryg\Documents\NVDB-Skripting\src\arb_kostrarapportering_2025\rapporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F72B94-73E3-45A3-A2B5-9C2B6ED37464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA978B-5763-43CB-B15B-6EF49485419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47145" yWindow="1890" windowWidth="23445" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32385" yWindow="2955" windowWidth="13230" windowHeight="16050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bru høyde under 4m" sheetId="1" r:id="rId1"/>
@@ -433,13 +433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="31" customWidth="1"/>
+    <col min="1" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,11 +539,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
